--- a/tests/test.xlsx
+++ b/tests/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="113">
   <si>
     <t xml:space="preserve">Instrument</t>
   </si>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">ToM CHESS Revision</t>
   </si>
   <si>
-    <t xml:space="preserve">released</t>
+    <t xml:space="preserve">rev 2 released</t>
   </si>
   <si>
     <t xml:space="preserve">INSTRUMENT SYSTEM</t>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">MC Unit</t>
   </si>
   <si>
+    <t xml:space="preserve">PTP</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC NC Axis ID</t>
   </si>
   <si>
@@ -76,13 +79,20 @@
     <t xml:space="preserve">Actuator type</t>
   </si>
   <si>
+    <t xml:space="preserve">PILS name
+(max. 15 char.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PILS unit</t>
+  </si>
+  <si>
     <t xml:space="preserve">Temperature sensor</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature unit</t>
   </si>
   <si>
-    <t xml:space="preserve">variable names</t>
+    <t xml:space="preserve">variable name</t>
   </si>
   <si>
     <t xml:space="preserve">extra PILS device type</t>
@@ -101,6 +111,9 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes/no</t>
   </si>
   <si>
     <t xml:space="preserve">MCS1::</t>
@@ -113,6 +126,13 @@
 p-pneumatic</t>
   </si>
   <si>
+    <t xml:space="preserve">Shutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm
+degree</t>
+  </si>
+  <si>
     <t xml:space="preserve">x-if yes</t>
   </si>
   <si>
@@ -120,16 +140,19 @@
 k-Kelvin</t>
   </si>
   <si>
-    <t xml:space="preserve">sttempcvacuum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tempVacuum</t>
+    <t xml:space="preserve">stTempVacuum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp#1Vacuum</t>
   </si>
   <si>
     <t xml:space="preserve">Heavy Shutter</t>
   </si>
   <si>
     <t xml:space="preserve">HvSht:MC-Pne-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">MCU6001a
@@ -145,12 +168,18 @@
     <t xml:space="preserve">Fil:MC-Pne-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Filter#1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filter 2</t>
   </si>
   <si>
     <t xml:space="preserve">Fil:MC-Pne-02</t>
   </si>
   <si>
+    <t xml:space="preserve">Filter#2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spare Axis 1</t>
   </si>
   <si>
@@ -182,6 +211,9 @@
   </si>
   <si>
     <t xml:space="preserve">ColSl1:MC-SlZm-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes</t>
   </si>
   <si>
     <t xml:space="preserve">MCS2::</t>
@@ -197,36 +229,60 @@
     <t xml:space="preserve">DivSl2:MC-SlYp-01</t>
   </si>
   <si>
+    <t xml:space="preserve">PosSlitHorizontal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slit Set 2 - Right Blade</t>
   </si>
   <si>
     <t xml:space="preserve">DivSl2:MC-SlYm-01</t>
   </si>
   <si>
+    <t xml:space="preserve">NegSlitHorizontal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slit Set 2 - Upper Blade</t>
   </si>
   <si>
     <t xml:space="preserve">DivSl2:MC-SlZp-01</t>
   </si>
   <si>
+    <t xml:space="preserve">PosSlitVertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slit Set 2 - Lower Blade</t>
   </si>
   <si>
     <t xml:space="preserve">DivSl2:MC-SlZm-01</t>
   </si>
   <si>
+    <t xml:space="preserve">NegSlitVertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beam Scan Y</t>
   </si>
   <si>
     <t xml:space="preserve">BmScn:MC-LinY-01</t>
   </si>
   <si>
+    <t xml:space="preserve">ScanLinearStage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sample rotation</t>
   </si>
   <si>
     <t xml:space="preserve">SpRot:MC-RotZ-01</t>
   </si>
   <si>
+    <t xml:space="preserve">RotationStage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">degree</t>
+  </si>
+  <si>
     <t xml:space="preserve">Goniometer</t>
   </si>
   <si>
@@ -254,6 +310,9 @@
     <t xml:space="preserve">SpChg:MC-LinY-01</t>
   </si>
   <si>
+    <t xml:space="preserve">SampleChanger</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spare</t>
   </si>
   <si>
@@ -272,6 +331,9 @@
     <t xml:space="preserve">DivSl2:MC-SlYc-01</t>
   </si>
   <si>
+    <t xml:space="preserve">SlitCentreHorizontal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horizontal Gap Slit Set 2</t>
   </si>
   <si>
@@ -281,6 +343,9 @@
     <t xml:space="preserve">DivSl2:MC-SlYg-01</t>
   </si>
   <si>
+    <t xml:space="preserve">SlitGapHorizontal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vertical Centre Slit Set 2</t>
   </si>
   <si>
@@ -290,6 +355,9 @@
     <t xml:space="preserve">DivSl2:MC-SlZc-01</t>
   </si>
   <si>
+    <t xml:space="preserve">SlitCentreVertical</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vertical Gap Slit Set 2</t>
   </si>
   <si>
@@ -297,6 +365,9 @@
   </si>
   <si>
     <t xml:space="preserve">DivSl2:MC-SlZg-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SlitGapVertical</t>
   </si>
 </sst>
 </file>
@@ -417,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -489,6 +560,55 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="medium"/>
       <top style="medium"/>
@@ -496,59 +616,24 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
+      <left style="thin"/>
+      <right/>
       <top style="medium"/>
       <bottom style="medium"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
-      <top/>
-      <bottom/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -561,7 +646,28 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
-      <top style="medium"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -573,13 +679,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
@@ -589,41 +688,20 @@
     <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
+      <right style="medium"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="medium"/>
+      <left/>
+      <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -654,7 +732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,139 +805,143 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -867,19 +949,31 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="5" borderId="27" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -960,10 +1054,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P39"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R19" activeCellId="0" sqref="R19"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -972,13 +1066,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="6.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="11" style="1" width="16.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="5.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="6.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="14" style="1" width="16.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -991,18 +1086,22 @@
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="7"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="8"/>
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
-    </row>
-    <row r="2" customFormat="false" ht="34.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+    </row>
+    <row r="2" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9"/>
       <c r="B2" s="10" t="s">
         <v>2</v>
@@ -1012,18 +1111,22 @@
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
       <c r="K2" s="13"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
@@ -1037,473 +1140,501 @@
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="17"/>
       <c r="L3" s="17"/>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+    </row>
+    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="18"/>
-    </row>
-    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="26" t="n">
+      <c r="Q4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="47.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="30" t="s">
+      <c r="B5" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="30" t="n">
+      <c r="C5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="H5" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="34" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="M5" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="34" t="s">
+      <c r="J5" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="34" t="n">
+      <c r="K5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="31" t="n">
         <v>1302</v>
       </c>
-      <c r="P5" s="35" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="36"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-    </row>
-    <row r="7" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="44" t="n">
+      <c r="S5" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="34"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+    </row>
+    <row r="7" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="43" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="46"/>
+      <c r="H7" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
       <c r="M7" s="49"/>
       <c r="N7" s="49"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+    </row>
+    <row r="8" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="48" t="n">
         <v>10</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C8" s="48" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D8" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="49" t="s">
+        <v>46</v>
+      </c>
       <c r="M8" s="49"/>
       <c r="N8" s="49"/>
       <c r="O8" s="49"/>
       <c r="P8" s="49"/>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+    </row>
+    <row r="9" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="48" t="n">
         <v>11</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C9" s="48" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46" t="n">
+        <v>48</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="49" t="s">
+        <v>49</v>
+      </c>
       <c r="M9" s="49"/>
       <c r="N9" s="49"/>
       <c r="O9" s="49"/>
       <c r="P9" s="49"/>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+    </row>
+    <row r="10" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C10" s="48" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D10" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="46" t="n">
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="49"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+    </row>
+    <row r="11" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C11" s="48" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="46" t="n">
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="46"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="49"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
       <c r="N11" s="49"/>
       <c r="O11" s="49"/>
       <c r="P11" s="49"/>
-    </row>
-    <row r="12" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+    </row>
+    <row r="12" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="48" t="n">
         <v>6</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D12" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="46" t="n">
+        <v>54</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="49"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L12" s="49"/>
       <c r="M12" s="49"/>
       <c r="N12" s="49"/>
       <c r="O12" s="49"/>
       <c r="P12" s="49"/>
-    </row>
-    <row r="13" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+    </row>
+    <row r="13" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="48" t="n">
         <v>7</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="46" t="n">
+        <v>56</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="49"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L13" s="49"/>
       <c r="M13" s="49"/>
       <c r="N13" s="49"/>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
-    </row>
-    <row r="14" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+    </row>
+    <row r="14" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="n">
         <v>8</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C14" s="48" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D14" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="46" t="n">
+        <v>58</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="49"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
       <c r="N14" s="49"/>
       <c r="O14" s="49"/>
       <c r="P14" s="49"/>
-    </row>
-    <row r="15" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+    </row>
+    <row r="15" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="48" t="n">
         <v>9</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C15" s="48" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D15" s="48" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45" t="n">
+        <v>6</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="46" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="49"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49"/>
       <c r="N15" s="49"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="50"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="53"/>
-    </row>
-    <row r="17" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+    </row>
+    <row r="17" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>0</v>
@@ -1511,700 +1642,727 @@
       <c r="E17" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="F17" s="46" t="n">
+      <c r="F17" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="46"/>
-      <c r="H17" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="I17" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17" s="49"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L17" s="49"/>
       <c r="M17" s="49"/>
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="49"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+    </row>
+    <row r="18" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="46" t="n">
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K18" s="49"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L18" s="49"/>
       <c r="M18" s="49"/>
       <c r="N18" s="49"/>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
-    </row>
-    <row r="19" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+    </row>
+    <row r="19" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="48" t="n">
         <v>2</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D19" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="46" t="n">
+        <v>65</v>
+      </c>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="49"/>
-      <c r="L19" s="49"/>
-      <c r="M19" s="49"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N19" s="49"/>
       <c r="O19" s="49"/>
       <c r="P19" s="49"/>
-    </row>
-    <row r="20" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+    </row>
+    <row r="20" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="48" t="n">
         <v>3</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="46" t="n">
+        <v>69</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45" t="n">
         <v>4</v>
       </c>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
-    </row>
-    <row r="21" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+    </row>
+    <row r="21" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="48" t="n">
         <v>4</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="46" t="n">
+        <v>72</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45" t="n">
         <v>5</v>
       </c>
-      <c r="G21" s="46"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L21" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
-    </row>
-    <row r="22" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+    </row>
+    <row r="22" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="48" t="n">
         <v>5</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="46" t="n">
+        <v>75</v>
+      </c>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45" t="n">
         <v>6</v>
       </c>
-      <c r="G22" s="46"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L22" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N22" s="49"/>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
-    </row>
-    <row r="23" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+    </row>
+    <row r="23" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="48" t="n">
         <v>20</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D23" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="46" t="n">
+        <v>78</v>
+      </c>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45" t="n">
         <v>7</v>
       </c>
-      <c r="G23" s="46"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
-    </row>
-    <row r="24" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+    </row>
+    <row r="24" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="48" t="n">
         <v>12</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="46" t="n">
+        <v>81</v>
+      </c>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45" t="n">
         <v>8</v>
       </c>
-      <c r="G24" s="46"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>83</v>
+      </c>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
-    </row>
-    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+    </row>
+    <row r="25" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="48" t="n">
         <v>13</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D25" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="46" t="n">
+        <v>85</v>
+      </c>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="45" t="n">
         <v>9</v>
       </c>
-      <c r="G25" s="46"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K25" s="49"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L25" s="49"/>
       <c r="M25" s="49"/>
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
-    </row>
-    <row r="26" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+    </row>
+    <row r="26" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="48" t="n">
         <v>14</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="46" t="n">
+        <v>86</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45" t="n">
         <v>10</v>
       </c>
-      <c r="G26" s="46"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26" s="49"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L26" s="49"/>
       <c r="M26" s="49"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
-    </row>
-    <row r="27" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+    </row>
+    <row r="27" s="50" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="48" t="n">
         <v>16</v>
       </c>
       <c r="B27" s="48" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C27" s="48" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="46" t="n">
+        <v>88</v>
+      </c>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="45" t="n">
         <v>11</v>
       </c>
-      <c r="G27" s="46"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="49"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L27" s="49"/>
       <c r="M27" s="49"/>
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
-    </row>
-    <row r="28" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+    </row>
+    <row r="28" s="50" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="48" t="n">
         <v>17</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="46" t="n">
+        <v>90</v>
+      </c>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45" t="n">
         <v>12</v>
       </c>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="49"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="48"/>
+      <c r="K28" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L28" s="49"/>
       <c r="M28" s="49"/>
       <c r="N28" s="49"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
-    </row>
-    <row r="29" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+    </row>
+    <row r="29" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="48" t="n">
         <v>15</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="C29" s="48" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="46" t="n">
+        <v>92</v>
+      </c>
+      <c r="E29" s="45"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="45" t="n">
         <v>13</v>
       </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="49"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="48"/>
+      <c r="K29" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+    </row>
+    <row r="30" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="48" t="n">
         <v>19</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E30" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="46" t="n">
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45" t="n">
         <v>14</v>
       </c>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K30" s="49"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
+      <c r="K30" s="49" t="s">
+        <v>51</v>
+      </c>
       <c r="L30" s="49"/>
       <c r="M30" s="49"/>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
-    </row>
-    <row r="31" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+    </row>
+    <row r="31" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="48" t="n">
         <v>21</v>
       </c>
       <c r="B31" s="48" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="C31" s="48" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E31" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46" t="n">
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="H31" s="47"/>
-      <c r="I31" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31" s="49"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="48"/>
+      <c r="K31" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="L31" s="49"/>
       <c r="M31" s="49"/>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
       <c r="P31" s="49"/>
-    </row>
-    <row r="32" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+    </row>
+    <row r="32" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="48" t="n">
         <v>0</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E32" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46" t="n">
+      <c r="E32" s="45"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45" t="n">
         <v>2</v>
       </c>
-      <c r="H32" s="47"/>
-      <c r="I32" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="49"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="49" t="s">
+        <v>43</v>
+      </c>
       <c r="L32" s="49"/>
       <c r="M32" s="49"/>
       <c r="N32" s="49"/>
       <c r="O32" s="49"/>
       <c r="P32" s="49"/>
-    </row>
-    <row r="33" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q32" s="49"/>
+      <c r="R32" s="49"/>
+      <c r="S32" s="49"/>
+    </row>
+    <row r="33" s="50" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="B33" s="54" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="56" t="n">
+      <c r="B33" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59" t="n">
         <v>15</v>
       </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="49"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="M33" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N33" s="49"/>
       <c r="O33" s="49"/>
       <c r="P33" s="49"/>
-    </row>
-    <row r="34" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="49"/>
+    </row>
+    <row r="34" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="48"/>
-      <c r="B34" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="56" t="n">
+      <c r="B34" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59" t="n">
         <v>16</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K34" s="49"/>
-      <c r="L34" s="49"/>
-      <c r="M34" s="49"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="48"/>
+      <c r="K34" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L34" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="M34" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N34" s="49"/>
       <c r="O34" s="49"/>
       <c r="P34" s="49"/>
-    </row>
-    <row r="35" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+    </row>
+    <row r="35" s="50" customFormat="true" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="B35" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="54" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="56" t="n">
+      <c r="B35" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59" t="n">
         <v>17</v>
       </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K35" s="49"/>
-      <c r="L35" s="49"/>
-      <c r="M35" s="49"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="47"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="M35" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
-    </row>
-    <row r="36" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q35" s="49"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+    </row>
+    <row r="36" s="50" customFormat="true" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="48"/>
-      <c r="B36" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D36" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="56" t="n">
+      <c r="B36" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59" t="n">
         <v>18</v>
       </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
+      <c r="K36" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="M36" s="49" t="s">
+        <v>67</v>
+      </c>
       <c r="N36" s="49"/>
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="50"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="53"/>
-      <c r="P37" s="53"/>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P39" s="1"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="P3:S3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
